--- a/defense_data.xlsx
+++ b/defense_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COC-Calculator\BuilderCalculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranwu\source\repos\Clash-of-Clans-Builder-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DA54E4-8594-4BC9-A1AE-EF830D6A9C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B763489A-D9A0-4829-B7B6-B983F1D941BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="-108" windowWidth="29076" windowHeight="17496" activeTab="1" xr2:uid="{A7CD909D-CF6F-4977-B539-3FE71DAB7C1A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{A7CD909D-CF6F-4977-B539-3FE71DAB7C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="23">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,13 +526,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -548,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -556,79 +556,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
@@ -643,22 +663,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:D412"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="2"/>
     <col min="6" max="9" width="8.6640625" style="7"/>
-    <col min="10" max="10" width="22.5546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="22.58203125" style="10" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -690,7 +710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,7 +742,7 @@
         <v>1.1574074074074075E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,7 +774,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,7 +806,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -818,7 +838,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,7 +870,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -882,7 +902,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,7 +934,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -946,7 +966,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -978,7 +998,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1030,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1094,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1126,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1382,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1414,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1446,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1478,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1510,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1542,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1574,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1586,7 +1606,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1638,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1682,7 +1702,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1714,7 +1734,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1766,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1798,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1830,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1862,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1938,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1970,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2022,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2054,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2086,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -2098,7 +2118,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2182,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -2226,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2278,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2310,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2354,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2386,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2470,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2514,7 +2534,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -2546,7 +2566,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2598,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2630,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2642,7 +2662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -2674,7 +2694,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -2706,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -2802,7 +2822,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -2834,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +2886,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +2918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -2962,7 +2982,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +3014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -3026,7 +3046,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -3058,7 +3078,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -3090,7 +3110,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -3122,7 +3142,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -3154,7 +3174,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -3186,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -3218,7 +3238,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -3250,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -3282,7 +3302,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -3346,7 +3366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -3410,7 +3430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3442,7 +3462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -3474,7 +3494,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +3526,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3558,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -3570,7 +3590,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -3602,7 +3622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -3634,7 +3654,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -3666,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -3698,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -3730,7 +3750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -3762,7 +3782,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -3794,7 +3814,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -3826,7 +3846,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -3858,7 +3878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -3890,7 +3910,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -3954,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -3986,7 +4006,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -4018,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -4050,7 +4070,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -4082,7 +4102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -4114,7 +4134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -4146,7 +4166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -4178,7 +4198,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -4210,7 +4230,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -4242,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4294,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
@@ -4306,7 +4326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>12</v>
       </c>
@@ -4338,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
@@ -4370,7 +4390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -4402,7 +4422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -4434,7 +4454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>12</v>
       </c>
@@ -4466,7 +4486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -4498,7 +4518,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>12</v>
       </c>
@@ -4530,7 +4550,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -4562,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -4594,7 +4614,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -4626,7 +4646,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -4658,7 +4678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -4690,7 +4710,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
@@ -4722,7 +4742,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -4754,7 +4774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -4786,7 +4806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -4818,7 +4838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -4850,7 +4870,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -4882,7 +4902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>14</v>
       </c>
@@ -4914,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
@@ -4946,7 +4966,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>14</v>
       </c>
@@ -4978,7 +4998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>14</v>
       </c>
@@ -5010,7 +5030,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>14</v>
       </c>
@@ -5042,7 +5062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>14</v>
       </c>
@@ -5074,7 +5094,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>14</v>
       </c>
@@ -5106,7 +5126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -5138,7 +5158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>14</v>
       </c>
@@ -5170,7 +5190,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>15</v>
       </c>
@@ -5202,7 +5222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>15</v>
       </c>
@@ -5234,7 +5254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>15</v>
       </c>
@@ -5266,7 +5286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>15</v>
       </c>
@@ -5298,7 +5318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>15</v>
       </c>
@@ -5330,7 +5350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>15</v>
       </c>
@@ -5362,7 +5382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>16</v>
       </c>
@@ -5394,7 +5414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>16</v>
       </c>
@@ -5426,7 +5446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>16</v>
       </c>
@@ -5458,7 +5478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>16</v>
       </c>
@@ -5490,7 +5510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5501,7 +5521,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -5512,7 +5532,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -5523,7 +5543,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -5534,7 +5554,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -5545,7 +5565,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -5556,7 +5576,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -5567,7 +5587,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -5578,7 +5598,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -5589,7 +5609,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -5600,7 +5620,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -5611,7 +5631,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -5622,7 +5642,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -5633,7 +5653,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -5644,7 +5664,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -5655,7 +5675,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
@@ -5666,7 +5686,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -5677,7 +5697,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -5688,7 +5708,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -5699,7 +5719,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -5710,7 +5730,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -5721,7 +5741,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -5732,7 +5752,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -5743,7 +5763,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -5754,7 +5774,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -5765,7 +5785,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -5776,7 +5796,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
@@ -5787,7 +5807,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -5798,7 +5818,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -5809,7 +5829,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -5820,7 +5840,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -5831,7 +5851,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
@@ -5842,7 +5862,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
@@ -5853,7 +5873,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
@@ -5864,7 +5884,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
@@ -5875,7 +5895,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
@@ -5886,7 +5906,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -5897,7 +5917,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -5908,7 +5928,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
@@ -5919,7 +5939,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
@@ -5930,7 +5950,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
@@ -5941,7 +5961,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
@@ -5952,7 +5972,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
@@ -5963,7 +5983,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
@@ -5974,7 +5994,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
@@ -5985,7 +6005,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
@@ -5996,7 +6016,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
@@ -6007,7 +6027,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
@@ -6018,7 +6038,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
@@ -6029,7 +6049,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
@@ -6040,7 +6060,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
@@ -6051,7 +6071,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
@@ -6062,7 +6082,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
@@ -6073,7 +6093,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
@@ -6084,7 +6104,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
@@ -6095,7 +6115,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
@@ -6106,7 +6126,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -6117,7 +6137,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
@@ -6128,7 +6148,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
@@ -6139,7 +6159,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
@@ -6150,7 +6170,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
@@ -6161,7 +6181,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
@@ -6172,7 +6192,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
@@ -6183,7 +6203,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
@@ -6194,7 +6214,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
@@ -6205,7 +6225,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
@@ -6216,7 +6236,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
@@ -6227,7 +6247,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
@@ -6238,7 +6258,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
@@ -6249,7 +6269,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
@@ -6260,7 +6280,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
@@ -6271,7 +6291,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
@@ -6282,7 +6302,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
@@ -6293,7 +6313,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
@@ -6304,7 +6324,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
@@ -6315,7 +6335,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
@@ -6326,7 +6346,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
@@ -6337,7 +6357,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
@@ -6348,7 +6368,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
@@ -6359,7 +6379,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
@@ -6370,7 +6390,7 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
@@ -6381,7 +6401,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
@@ -6392,7 +6412,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
@@ -6403,7 +6423,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
@@ -6414,7 +6434,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
@@ -6425,7 +6445,7 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
@@ -6436,7 +6456,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
@@ -6447,7 +6467,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
@@ -6458,7 +6478,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
@@ -6469,7 +6489,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
@@ -6480,7 +6500,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
@@ -6491,7 +6511,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
@@ -6502,7 +6522,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
@@ -6513,7 +6533,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
@@ -6524,7 +6544,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
@@ -6535,482 +6555,482 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
     </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
     </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
     </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
       <c r="D321" s="7"/>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
       <c r="D333" s="7"/>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
     </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
     </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
     </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
     </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
     </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
     </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="1"/>
@@ -7020,7 +7040,7 @@
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
     </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="1"/>
@@ -7030,7 +7050,7 @@
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
     </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="1"/>
@@ -7040,7 +7060,7 @@
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
     </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="1"/>
@@ -7050,7 +7070,7 @@
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
     </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="1"/>
@@ -7060,7 +7080,7 @@
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="1"/>
@@ -7070,7 +7090,7 @@
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
     </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="1"/>
@@ -7080,7 +7100,7 @@
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
     </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="1"/>
@@ -7090,7 +7110,7 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="1"/>
@@ -7100,7 +7120,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="1"/>
@@ -7110,7 +7130,7 @@
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
     </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="1"/>
@@ -7120,7 +7140,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="1"/>
@@ -7130,7 +7150,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="1"/>
@@ -7140,7 +7160,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="1"/>
@@ -7150,7 +7170,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="1"/>
@@ -7160,7 +7180,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="1"/>
@@ -7170,7 +7190,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="1"/>
@@ -7180,7 +7200,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="1"/>
@@ -7190,7 +7210,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="1"/>
@@ -7200,7 +7220,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="1"/>
@@ -7210,7 +7230,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="1"/>
@@ -7220,7 +7240,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="1"/>
@@ -7230,7 +7250,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="1"/>
@@ -7240,7 +7260,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="1"/>
@@ -7250,7 +7270,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="1"/>
@@ -7260,7 +7280,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="1"/>
@@ -7270,7 +7290,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="1"/>
@@ -7280,7 +7300,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="1"/>
@@ -7290,7 +7310,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="1"/>
@@ -7300,7 +7320,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="1"/>
@@ -7310,7 +7330,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="1"/>
@@ -7320,7 +7340,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="1"/>
@@ -7330,7 +7350,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="1"/>
@@ -7340,7 +7360,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="1"/>
@@ -7350,7 +7370,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="1"/>
@@ -7360,7 +7380,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="1"/>
@@ -7370,7 +7390,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="1"/>
@@ -7380,7 +7400,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="1"/>
@@ -7390,7 +7410,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="1"/>
@@ -7400,7 +7420,7 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
     </row>
-    <row r="381" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="1"/>
@@ -7410,7 +7430,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="1"/>
@@ -7420,7 +7440,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="1"/>
@@ -7430,7 +7450,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="1"/>
@@ -7440,7 +7460,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="1"/>
@@ -7450,7 +7470,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="1"/>
@@ -7460,7 +7480,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="1"/>
@@ -7470,7 +7490,7 @@
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
     </row>
-    <row r="388" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="1"/>
@@ -7480,7 +7500,7 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
     </row>
-    <row r="389" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="1"/>
@@ -7490,7 +7510,7 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
     </row>
-    <row r="390" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="1"/>
@@ -7500,7 +7520,7 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
     </row>
-    <row r="391" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="1"/>
@@ -7510,7 +7530,7 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
     </row>
-    <row r="392" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="1"/>
@@ -7520,7 +7540,7 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
     </row>
-    <row r="393" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="1"/>
@@ -7530,7 +7550,7 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
     </row>
-    <row r="394" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="1"/>
@@ -7540,7 +7560,7 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
     </row>
-    <row r="395" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="1"/>
@@ -7550,7 +7570,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="1"/>
@@ -7560,7 +7580,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="1"/>
@@ -7570,7 +7590,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="1"/>
@@ -7580,7 +7600,7 @@
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
     </row>
-    <row r="399" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="1"/>
@@ -7590,7 +7610,7 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
     </row>
-    <row r="400" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="1"/>
@@ -7600,7 +7620,7 @@
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
     </row>
-    <row r="401" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="1"/>
@@ -7610,7 +7630,7 @@
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
     </row>
-    <row r="402" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="1"/>
@@ -7620,7 +7640,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="1"/>
@@ -7630,7 +7650,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="1"/>
@@ -7640,7 +7660,7 @@
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
     </row>
-    <row r="405" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="1"/>
@@ -7650,7 +7670,7 @@
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
     </row>
-    <row r="406" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="1"/>
@@ -7660,7 +7680,7 @@
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
     </row>
-    <row r="407" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="1"/>
@@ -7670,7 +7690,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
     </row>
-    <row r="408" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="1"/>
@@ -7680,7 +7700,7 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
     </row>
-    <row r="409" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="1"/>
@@ -7690,7 +7710,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="1"/>
@@ -7700,7 +7720,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="1"/>
